--- a/MaleconWeb/src/main/webapp/upload/barus_SCOTT_DEPT.xlsx
+++ b/MaleconWeb/src/main/webapp/upload/barus_SCOTT_DEPT.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>ROW_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DEPTNO</t>
   </si>
@@ -24,9 +21,6 @@
   </si>
   <si>
     <t>LOC</t>
-  </si>
-  <si>
-    <t>AAAE5GAABAAAKhBAAA</t>
   </si>
   <si>
     <t>10</t>
@@ -38,9 +32,6 @@
     <t>NEW YORK</t>
   </si>
   <si>
-    <t>AAAE5GAABAAAKhBAAB</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -50,9 +41,6 @@
     <t>DALLAS</t>
   </si>
   <si>
-    <t>AAAE5GAABAAAKhBAAC</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -60,9 +48,6 @@
   </si>
   <si>
     <t>CHICAGO</t>
-  </si>
-  <si>
-    <t>AAAE5GAABAAAKhBAAD</t>
   </si>
   <si>
     <t>40</t>
@@ -135,16 +120,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="0.0703125" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="0.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -157,64 +142,49 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="C2" t="s" s="1">
         <v>5</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
